--- a/biology/Médecine/Hôpital_de_Ploërmel/Hôpital_de_Ploërmel.xlsx
+++ b/biology/Médecine/Hôpital_de_Ploërmel/Hôpital_de_Ploërmel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Plo%C3%ABrmel</t>
+          <t>Hôpital_de_Ploërmel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centre hospitalier Alphonse Guérin
 L′hôpital de Ploërmel, ou centre hospitalier Alphonse Guérin, est un hôpital public de proximité, situé dans la commune de Ploërmel, dans le Morbihan, en Bretagne (France). Il dispose notamment d'un service d'urgences, d'un service de chirurgie et d'une maternité.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Plo%C3%ABrmel</t>
+          <t>Hôpital_de_Ploërmel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Dénomination et administratif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de Ploërmel est baptisé « centre hospitalier Alphonse-Guérin »[1] en hommage à Alphonse Guérin[2], un médecin et chirurgien des hôpitaux de Paris qui est né à Ploërmel[3].
-Avec l'hôpital de Josselin et celui de Malestroit, il constitue le Centre Hospitalier du Pays de Ploërmel[4]. De façon plus large, il appartient au Groupement hospitalier Brocéliande Atlantique (GHBA), qui regroupe les hôpitaux de Vannes, d'Auray, de Josselin, de Belle-Île-en-Mer, de Basse-Vilaine de Nivillac, ainsi que l'Établissement social et médico-social de Malestroit et l'Établissement public de santé mentale du Morbihan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de Ploërmel est baptisé « centre hospitalier Alphonse-Guérin » en hommage à Alphonse Guérin, un médecin et chirurgien des hôpitaux de Paris qui est né à Ploërmel.
+Avec l'hôpital de Josselin et celui de Malestroit, il constitue le Centre Hospitalier du Pays de Ploërmel. De façon plus large, il appartient au Groupement hospitalier Brocéliande Atlantique (GHBA), qui regroupe les hôpitaux de Vannes, d'Auray, de Josselin, de Belle-Île-en-Mer, de Basse-Vilaine de Nivillac, ainsi que l'Établissement social et médico-social de Malestroit et l'Établissement public de santé mentale du Morbihan.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Plo%C3%ABrmel</t>
+          <t>Hôpital_de_Ploërmel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Soins hospitaliers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un hôpital de proximité[1]. En 2021, l'hôpital de Ploërmel dispose d'un total de 345 lits : 107 en médecine, 25 en chirurgie, 16 en gynéco-obstétrique, 177 hébergements et 20 lits d'hospitalisation à domicile[5]. Il s'y ajoute 177 places en EHPAD[6].
-L'hôpital de Ploërmel est organisé en pôles : médecine, chirurgie, activités transversales, support de soin et secteur personnes âgées[4]. En 2021, sa maternité prend en charge environ 850 accouchements par an[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un hôpital de proximité. En 2021, l'hôpital de Ploërmel dispose d'un total de 345 lits : 107 en médecine, 25 en chirurgie, 16 en gynéco-obstétrique, 177 hébergements et 20 lits d'hospitalisation à domicile. Il s'y ajoute 177 places en EHPAD.
+L'hôpital de Ploërmel est organisé en pôles : médecine, chirurgie, activités transversales, support de soin et secteur personnes âgées. En 2021, sa maternité prend en charge environ 850 accouchements par an.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Plo%C3%ABrmel</t>
+          <t>Hôpital_de_Ploërmel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'existence d'un hôpital à Ploërmel est attestée par un arrêté d'audience daté du 18 décembre 1628[7]. Pierre Le Gouvello de Keriolet y aurait logé en 1636[8]. D'après la Revue de Bretagne, Anne-Toussainte de Volvire a, selon son testament rédigé en 1694, légué tous ses biens à l'hôpital de Ploërmel[9].
-Le service de maternité est ouvert en 1961, puis renforcé à plusieurs reprises[4]. En 2011, le service de maternité obtient le label « hôpital ami des bébés »[4]. En 2019, le député Paul Molac interpelle le gouvernement quant à un risque de délocalisations des activités de l'hôpital de Ploërmel vers l'hôpital de Vannes[10]. Le développement d'un plateau de chirurgie et du service de maternité est évoqué fin 2020[1].
-En juin 2021, la suppression de 10 lits (7 en chirurgie et 3 en médecine) est annoncée[11]. Le 1er juillet 2021, à l'instigation de la CFDT, le personnel proteste contre cette annonce[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'existence d'un hôpital à Ploërmel est attestée par un arrêté d'audience daté du 18 décembre 1628. Pierre Le Gouvello de Keriolet y aurait logé en 1636. D'après la Revue de Bretagne, Anne-Toussainte de Volvire a, selon son testament rédigé en 1694, légué tous ses biens à l'hôpital de Ploërmel.
+Le service de maternité est ouvert en 1961, puis renforcé à plusieurs reprises. En 2011, le service de maternité obtient le label « hôpital ami des bébés ». En 2019, le député Paul Molac interpelle le gouvernement quant à un risque de délocalisations des activités de l'hôpital de Ploërmel vers l'hôpital de Vannes. Le développement d'un plateau de chirurgie et du service de maternité est évoqué fin 2020.
+En juin 2021, la suppression de 10 lits (7 en chirurgie et 3 en médecine) est annoncée. Le 1er juillet 2021, à l'instigation de la CFDT, le personnel proteste contre cette annonce.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Plo%C3%ABrmel</t>
+          <t>Hôpital_de_Ploërmel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Équipe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Début 2021, quatre chirurgiens ORL venus de l'hôpital de Vannes renforcent le service[13]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Début 2021, quatre chirurgiens ORL venus de l'hôpital de Vannes renforcent le service
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Plo%C3%ABrmel</t>
+          <t>Hôpital_de_Ploërmel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,10 +660,12 @@
           <t>Matériel</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le service de cardiologie est doté de défibrillateurs et d'échocardiographies de stress[14].
-En octobre 2020, l'hôpital de Ploërmel se dote d'un scanner spectral, loué pour une durée de sept ans, qui représente un budget d'un million d'euros[15]. Il dépose au même moment une demande d’implantation d'appareil d'imagerie par résonance magnétique (IRM)[15].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le service de cardiologie est doté de défibrillateurs et d'échocardiographies de stress.
+En octobre 2020, l'hôpital de Ploërmel se dote d'un scanner spectral, loué pour une durée de sept ans, qui représente un budget d'un million d'euros. Il dépose au même moment une demande d’implantation d'appareil d'imagerie par résonance magnétique (IRM).
 </t>
         </is>
       </c>
